--- a/biology/Zoologie/Canard_de_Duclair/Canard_de_Duclair.xlsx
+++ b/biology/Zoologie/Canard_de_Duclair/Canard_de_Duclair.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Le Canard de Duclair est un canard originaire de Normandie qui porte le nom de la ville de Duclair. Il est à l'origine de la recette du canard au sang[1],[2]. Il est surnommé l'« avocat », à cause de sa livrée noire[3].
+Le Canard de Duclair est un canard originaire de Normandie qui porte le nom de la ville de Duclair. Il est à l'origine de la recette du canard au sang,. Il est surnommé l'« avocat », à cause de sa livrée noire.
 </t>
         </is>
       </c>
@@ -512,12 +524,14 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il est généralement de couleur noire, et se caractérise par une bavette blanche, commençant à la naissance du cou et s'élargissant sur la poitrine[1]. Une variété de couleur grise (au plumage dit bleu) a été sélectionnée par la suite.
-Le mâle atteint une masse d'environ 3 kg et la cane 2,5 kg. Elle pond environ 150 œufs par an de 70 g et de couleur verdâtre[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il est généralement de couleur noire, et se caractérise par une bavette blanche, commençant à la naissance du cou et s'élargissant sur la poitrine. Une variété de couleur grise (au plumage dit bleu) a été sélectionnée par la suite.
+Le mâle atteint une masse d'environ 3 kg et la cane 2,5 kg. Elle pond environ 150 œufs par an de 70 g et de couleur verdâtre.
 Sa chair est moins grasse que celle de ses congénères. Il est plus petit que son cousin, le canard de Rouen.
-Cette race a connu son heure de gloire au début du XXe siècle. Devenue rare, elle fait aujourd'hui l'objet d'un plan de sauvegarde grâce notamment à l'action du club de sauvegarde des races avicoles normandes[4] et au conservatoire des races normandes et du Maine.
+Cette race a connu son heure de gloire au début du XXe siècle. Devenue rare, elle fait aujourd'hui l'objet d'un plan de sauvegarde grâce notamment à l'action du club de sauvegarde des races avicoles normandes et au conservatoire des races normandes et du Maine.
 </t>
         </is>
       </c>
